--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Npy-Fap.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Npy-Fap.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.472578</v>
+        <v>0.4700283333333333</v>
       </c>
       <c r="H2">
-        <v>4.417734</v>
+        <v>1.410085</v>
       </c>
       <c r="I2">
-        <v>0.8199988566099823</v>
+        <v>0.1029504401632623</v>
       </c>
       <c r="J2">
-        <v>0.8199988566099823</v>
+        <v>0.1029504401632623</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.817565333333333</v>
+        <v>1.594573666666667</v>
       </c>
       <c r="N2">
-        <v>5.452696</v>
+        <v>4.783721</v>
       </c>
       <c r="O2">
-        <v>0.02431372968343199</v>
+        <v>0.02486291601650538</v>
       </c>
       <c r="P2">
-        <v>0.0262831443421052</v>
+        <v>0.02555161524603605</v>
       </c>
       <c r="Q2">
-        <v>2.676506723429334</v>
+        <v>0.7494948029205555</v>
       </c>
       <c r="R2">
-        <v>24.088560510864</v>
+        <v>6.745453226285</v>
       </c>
       <c r="S2">
-        <v>0.01993723054033842</v>
+        <v>0.002559648147641452</v>
       </c>
       <c r="T2">
-        <v>0.02155214830864139</v>
+        <v>0.002630550036461734</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.472578</v>
+        <v>0.4700283333333333</v>
       </c>
       <c r="H3">
-        <v>4.417734</v>
+        <v>1.410085</v>
       </c>
       <c r="I3">
-        <v>0.8199988566099823</v>
+        <v>0.1029504401632623</v>
       </c>
       <c r="J3">
-        <v>0.8199988566099823</v>
+        <v>0.1029504401632623</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>158.083181</v>
       </c>
       <c r="O3">
-        <v>0.7048974911366876</v>
+        <v>0.8216216733427845</v>
       </c>
       <c r="P3">
-        <v>0.7619942619728192</v>
+        <v>0.844380476574925</v>
       </c>
       <c r="Q3">
-        <v>77.59660483687267</v>
+        <v>24.76785803115389</v>
       </c>
       <c r="R3">
-        <v>698.369443531854</v>
+        <v>222.910722280385</v>
       </c>
       <c r="S3">
-        <v>0.578015136759329</v>
+        <v>0.08458631291831575</v>
       </c>
       <c r="T3">
-        <v>0.624834423561079</v>
+        <v>0.08692934172865369</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.472578</v>
+        <v>0.4700283333333333</v>
       </c>
       <c r="H4">
-        <v>4.417734</v>
+        <v>1.410085</v>
       </c>
       <c r="I4">
-        <v>0.8199988566099823</v>
+        <v>0.1029504401632623</v>
       </c>
       <c r="J4">
-        <v>0.8199988566099823</v>
+        <v>0.1029504401632623</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.724246333333333</v>
+        <v>3.409993333333333</v>
       </c>
       <c r="N4">
-        <v>5.172739</v>
+        <v>10.22998</v>
       </c>
       <c r="O4">
-        <v>0.02306539329699406</v>
+        <v>0.05316930765622194</v>
       </c>
       <c r="P4">
-        <v>0.02493369257721996</v>
+        <v>0.05464208989919016</v>
       </c>
       <c r="Q4">
-        <v>2.539087217047334</v>
+        <v>1.602793483144444</v>
       </c>
       <c r="R4">
-        <v>22.851784953426</v>
+        <v>14.4251413483</v>
       </c>
       <c r="S4">
-        <v>0.01891359613079468</v>
+        <v>0.005473803626383959</v>
       </c>
       <c r="T4">
-        <v>0.02044559940438517</v>
+        <v>0.005625427206562174</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.472578</v>
+        <v>0.4700283333333333</v>
       </c>
       <c r="H5">
-        <v>4.417734</v>
+        <v>1.410085</v>
       </c>
       <c r="I5">
-        <v>0.8199988566099823</v>
+        <v>0.1029504401632623</v>
       </c>
       <c r="J5">
-        <v>0.8199988566099823</v>
+        <v>0.1029504401632623</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.804266</v>
+        <v>5.1859105</v>
       </c>
       <c r="N5">
-        <v>33.608532</v>
+        <v>10.371821</v>
       </c>
       <c r="O5">
-        <v>0.2247921290967736</v>
+        <v>0.08085976830418</v>
       </c>
       <c r="P5">
-        <v>0.1620002101129903</v>
+        <v>0.05539971490660867</v>
       </c>
       <c r="Q5">
-        <v>24.74559241774801</v>
+        <v>2.437524869130833</v>
       </c>
       <c r="R5">
-        <v>148.473554506488</v>
+        <v>14.625149214785</v>
       </c>
       <c r="S5">
-        <v>0.1843292888342779</v>
+        <v>0.008324548738414733</v>
       </c>
       <c r="T5">
-        <v>0.1328399870632289</v>
+        <v>0.005703425034554604</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.472578</v>
+        <v>0.4700283333333333</v>
       </c>
       <c r="H6">
-        <v>4.417734</v>
+        <v>1.410085</v>
       </c>
       <c r="I6">
-        <v>0.8199988566099823</v>
+        <v>0.1029504401632623</v>
       </c>
       <c r="J6">
-        <v>0.8199988566099823</v>
+        <v>0.1029504401632623</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.714219</v>
+        <v>1.249748666666667</v>
       </c>
       <c r="N6">
-        <v>5.142657</v>
+        <v>3.749246</v>
       </c>
       <c r="O6">
-        <v>0.02293125678611265</v>
+        <v>0.01948633468030822</v>
       </c>
       <c r="P6">
-        <v>0.02478869099486524</v>
+        <v>0.02002610337324014</v>
       </c>
       <c r="Q6">
-        <v>2.524321186582</v>
+        <v>0.5874172828788888</v>
       </c>
       <c r="R6">
-        <v>22.718890679238</v>
+        <v>5.28675554591</v>
       </c>
       <c r="S6">
-        <v>0.01880360434524227</v>
+        <v>0.002006126732506374</v>
       </c>
       <c r="T6">
-        <v>0.02032669827264767</v>
+        <v>0.002061696157030063</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3232513333333334</v>
+        <v>4.095550333333333</v>
       </c>
       <c r="H7">
-        <v>0.9697540000000001</v>
+        <v>12.286651</v>
       </c>
       <c r="I7">
-        <v>0.1800011433900178</v>
+        <v>0.8970495598367377</v>
       </c>
       <c r="J7">
-        <v>0.1800011433900178</v>
+        <v>0.8970495598367377</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.817565333333333</v>
+        <v>1.594573666666667</v>
       </c>
       <c r="N7">
-        <v>5.452696</v>
+        <v>4.783721</v>
       </c>
       <c r="O7">
-        <v>0.02431372968343199</v>
+        <v>0.02486291601650538</v>
       </c>
       <c r="P7">
-        <v>0.0262831443421052</v>
+        <v>0.02555161524603605</v>
       </c>
       <c r="Q7">
-        <v>0.5875304174204445</v>
+        <v>6.530656712041221</v>
       </c>
       <c r="R7">
-        <v>5.287773756784</v>
+        <v>58.775910408371</v>
       </c>
       <c r="S7">
-        <v>0.004376499143093574</v>
+        <v>0.02230326786886392</v>
       </c>
       <c r="T7">
-        <v>0.004730996033463813</v>
+        <v>0.02292106520957431</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3232513333333334</v>
+        <v>4.095550333333333</v>
       </c>
       <c r="H8">
-        <v>0.9697540000000001</v>
+        <v>12.286651</v>
       </c>
       <c r="I8">
-        <v>0.1800011433900178</v>
+        <v>0.8970495598367377</v>
       </c>
       <c r="J8">
-        <v>0.1800011433900178</v>
+        <v>0.8970495598367377</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>158.083181</v>
       </c>
       <c r="O8">
-        <v>0.7048974911366876</v>
+        <v>0.8216216733427845</v>
       </c>
       <c r="P8">
-        <v>0.7619942619728192</v>
+        <v>0.844380476574925</v>
       </c>
       <c r="Q8">
-        <v>17.03353301194156</v>
+        <v>215.8125415463145</v>
       </c>
       <c r="R8">
-        <v>153.301797107474</v>
+        <v>1942.312873916831</v>
       </c>
       <c r="S8">
-        <v>0.1268823543773587</v>
+        <v>0.7370353604244687</v>
       </c>
       <c r="T8">
-        <v>0.1371598384117402</v>
+        <v>0.7574511348462712</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3232513333333334</v>
+        <v>4.095550333333333</v>
       </c>
       <c r="H9">
-        <v>0.9697540000000001</v>
+        <v>12.286651</v>
       </c>
       <c r="I9">
-        <v>0.1800011433900178</v>
+        <v>0.8970495598367377</v>
       </c>
       <c r="J9">
-        <v>0.1800011433900178</v>
+        <v>0.8970495598367377</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.724246333333333</v>
+        <v>3.409993333333333</v>
       </c>
       <c r="N9">
-        <v>5.172739</v>
+        <v>10.22998</v>
       </c>
       <c r="O9">
-        <v>0.02306539329699406</v>
+        <v>0.05316930765622194</v>
       </c>
       <c r="P9">
-        <v>0.02493369257721996</v>
+        <v>0.05464208989919016</v>
       </c>
       <c r="Q9">
-        <v>0.5573649262451112</v>
+        <v>13.96579933299777</v>
       </c>
       <c r="R9">
-        <v>5.016284336206001</v>
+        <v>125.69219399698</v>
       </c>
       <c r="S9">
-        <v>0.004151797166199383</v>
+        <v>0.04769550402983798</v>
       </c>
       <c r="T9">
-        <v>0.004488093172834791</v>
+        <v>0.04901666269262799</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3232513333333334</v>
+        <v>4.095550333333333</v>
       </c>
       <c r="H10">
-        <v>0.9697540000000001</v>
+        <v>12.286651</v>
       </c>
       <c r="I10">
-        <v>0.1800011433900178</v>
+        <v>0.8970495598367377</v>
       </c>
       <c r="J10">
-        <v>0.1800011433900178</v>
+        <v>0.8970495598367377</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.804266</v>
+        <v>5.1859105</v>
       </c>
       <c r="N10">
-        <v>33.608532</v>
+        <v>10.371821</v>
       </c>
       <c r="O10">
-        <v>0.2247921290967736</v>
+        <v>0.08085976830418</v>
       </c>
       <c r="P10">
-        <v>0.1620002101129903</v>
+        <v>0.05539971490660867</v>
       </c>
       <c r="Q10">
-        <v>5.432001390188002</v>
+        <v>21.23915747691183</v>
       </c>
       <c r="R10">
-        <v>32.59200834112801</v>
+        <v>127.434944861471</v>
       </c>
       <c r="S10">
-        <v>0.04046284026249573</v>
+        <v>0.07253521956576527</v>
       </c>
       <c r="T10">
-        <v>0.02916022304976138</v>
+        <v>0.04969628987205406</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3232513333333334</v>
+        <v>4.095550333333333</v>
       </c>
       <c r="H11">
-        <v>0.9697540000000001</v>
+        <v>12.286651</v>
       </c>
       <c r="I11">
-        <v>0.1800011433900178</v>
+        <v>0.8970495598367377</v>
       </c>
       <c r="J11">
-        <v>0.1800011433900178</v>
+        <v>0.8970495598367377</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.714219</v>
+        <v>1.249748666666667</v>
       </c>
       <c r="N11">
-        <v>5.142657</v>
+        <v>3.749246</v>
       </c>
       <c r="O11">
-        <v>0.02293125678611265</v>
+        <v>0.01948633468030822</v>
       </c>
       <c r="P11">
-        <v>0.02478869099486524</v>
+        <v>0.02002610337324014</v>
       </c>
       <c r="Q11">
-        <v>0.5541235773753335</v>
+        <v>5.118408568349555</v>
       </c>
       <c r="R11">
-        <v>4.987112196378001</v>
+        <v>46.06567711514599</v>
       </c>
       <c r="S11">
-        <v>0.004127652440870382</v>
+        <v>0.01748020794780185</v>
       </c>
       <c r="T11">
-        <v>0.004461992722217581</v>
+        <v>0.01796440721621007</v>
       </c>
     </row>
   </sheetData>
